--- a/diccionario Energy.xlsx
+++ b/diccionario Energy.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOUTSORT\Documents\2025-2\DATA MINING\proyecto\DATA-MINING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCC9661C-20BD-4014-898C-18B5B11DEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7B056-6C31-408B-B620-3707B739D74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="owid-energy-codebook" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,7 +969,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1147,6 +1147,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1310,8 +1316,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1666,14 +1674,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1742,10 +1754,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
@@ -1764,10 +1776,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
@@ -1786,10 +1798,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
@@ -1819,10 +1831,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
@@ -1841,10 +1853,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
@@ -1863,10 +1875,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
@@ -1885,10 +1897,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C20" t="s">
@@ -1984,10 +1996,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C29" t="s">
@@ -1995,10 +2007,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C30" t="s">
@@ -2017,10 +2029,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C32" t="s">
@@ -2061,10 +2073,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C36" t="s">
@@ -2083,10 +2095,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C38" t="s">
@@ -2105,10 +2117,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C40" t="s">
@@ -2149,10 +2161,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C44" t="s">
@@ -2182,10 +2194,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C47" t="s">
